--- a/02_設計/06_クラス図/【フォーマット】クラス図.xlsx
+++ b/02_設計/06_クラス図/【フォーマット】クラス図.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kisim\OneDrive\Documents\GitHub\scheduleOnline\02_設計\01_画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/2021年技術研修/設計書テンプレート/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="377" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58F8CC99-C75C-4D15-98E6-974663933A2C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -130,23 +131,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機能ID</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能名称</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>凡例</t>
     <rPh sb="0" eb="2">
       <t>ハンレイ</t>
@@ -177,10 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「+」・・・すべてのクラスからアクセス可能(public)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -203,11 +183,32 @@
     <t>F0-001</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>画面ID</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面名</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -725,7 +726,7 @@
         <xdr:cNvPr id="9" name="グループ化 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72C5C6BB-7F45-46DF-9617-3C21358D65B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C5C6BB-7F45-46DF-9617-3C21358D65B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -733,8 +734,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2345531" y="1188244"/>
-          <a:ext cx="2119313" cy="1019175"/>
+          <a:off x="2362200" y="1143000"/>
+          <a:ext cx="2133600" cy="971550"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="971550"/>
         </a:xfrm>
@@ -744,7 +745,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88D65AE9-E65A-48CB-B355-50C3C2A03BBB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D65AE9-E65A-48CB-B355-50C3C2A03BBB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -841,7 +842,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF65FA12-9003-46E8-B6DE-1379D13C421B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF65FA12-9003-46E8-B6DE-1379D13C421B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -922,7 +923,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9ED849C1-B863-4597-B9BA-ECF571764CAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED849C1-B863-4597-B9BA-ECF571764CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -930,8 +931,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2345531" y="1188244"/>
-          <a:ext cx="2119313" cy="1000125"/>
+          <a:off x="2362200" y="1143000"/>
+          <a:ext cx="2133600" cy="952500"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="952500"/>
         </a:xfrm>
@@ -941,7 +942,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B4C7ACB-7760-4419-999E-B4A3A4A51FB8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4C7ACB-7760-4419-999E-B4A3A4A51FB8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1038,7 +1039,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39263BCA-9D63-433C-800E-E2C91DEEF189}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39263BCA-9D63-433C-800E-E2C91DEEF189}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1114,7 +1115,7 @@
         <xdr:cNvPr id="5" name="グループ化 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93A670CB-A62C-4571-8715-7C76AD1F1D6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A670CB-A62C-4571-8715-7C76AD1F1D6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1122,8 +1123,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2033588" y="5114924"/>
-          <a:ext cx="2119312" cy="1981202"/>
+          <a:off x="2047875" y="4905374"/>
+          <a:ext cx="2133600" cy="1905002"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="971550"/>
         </a:xfrm>
@@ -1133,7 +1134,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{590A03FA-3E38-4096-BC70-B8A559ED2415}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590A03FA-3E38-4096-BC70-B8A559ED2415}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1402,7 +1403,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{206BDE67-DE30-4F90-8DA1-F75046FB0D15}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206BDE67-DE30-4F90-8DA1-F75046FB0D15}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1478,7 +1479,7 @@
         <xdr:cNvPr id="12" name="グループ化 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29DB05BF-01C9-4267-9099-4812A36CFF9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29DB05BF-01C9-4267-9099-4812A36CFF9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,8 +1487,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6307931" y="3924299"/>
-          <a:ext cx="2116932" cy="695326"/>
+          <a:off x="6353175" y="3762374"/>
+          <a:ext cx="2133600" cy="666751"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="971550"/>
         </a:xfrm>
@@ -1497,7 +1498,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA04C475-6179-4AB4-91FE-3CE5BB378E47}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA04C475-6179-4AB4-91FE-3CE5BB378E47}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1562,7 +1563,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C4EC36F-4B08-44DF-B8A6-E1D8EC0BD225}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4EC36F-4B08-44DF-B8A6-E1D8EC0BD225}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1638,7 +1639,7 @@
         <xdr:cNvPr id="16" name="直線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E809D6A-2439-4A64-8925-0B9CAFDF82FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E809D6A-2439-4A64-8925-0B9CAFDF82FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,7 +1697,7 @@
         <xdr:cNvPr id="18" name="グループ化 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50A36C53-97F5-4297-9C52-31961F3CD075}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A36C53-97F5-4297-9C52-31961F3CD075}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1704,8 +1705,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6222206" y="6600824"/>
-          <a:ext cx="2514600" cy="1971678"/>
+          <a:off x="6267450" y="6334124"/>
+          <a:ext cx="2533650" cy="1895478"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="966693"/>
         </a:xfrm>
@@ -1715,7 +1716,7 @@
           <xdr:cNvPr id="19" name="正方形/長方形 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEC823C2-CBAE-45D3-BED8-9EC3CD4A2BCF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC823C2-CBAE-45D3-BED8-9EC3CD4A2BCF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1966,7 +1967,7 @@
           <xdr:cNvPr id="20" name="正方形/長方形 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAAEA064-A148-4E63-A6E5-E5BA65A5714F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAAEA064-A148-4E63-A6E5-E5BA65A5714F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2042,7 +2043,7 @@
         <xdr:cNvPr id="21" name="直線コネクタ 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7CCF866C-F428-4E9C-8D92-5AAA0CBD1F02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCF866C-F428-4E9C-8D92-5AAA0CBD1F02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,36 +2348,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AAE25D-EA43-4FE5-BBFF-112166FF36B9}">
   <dimension ref="F11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="11" spans="6:6" ht="58.5">
+    <row r="11" spans="6:6" ht="58.2">
       <c r="F11" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43ECED-C49E-487B-A707-8B19853E3EDC}">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="1" max="1" width="5.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3148,12 +3149,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35813DF8-F119-4842-950B-7ED0ADF5C4C6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3163,11 +3164,11 @@
       <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43">
       <c r="A1" s="36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -3181,7 +3182,7 @@
       <c r="K1" s="37"/>
       <c r="L1" s="37"/>
       <c r="M1" s="32" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" s="32"/>
       <c r="O1" s="32"/>
@@ -3232,7 +3233,7 @@
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
       <c r="M2" s="34" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
@@ -3269,7 +3270,7 @@
       <c r="AP2" s="34"/>
       <c r="AQ2" s="35"/>
     </row>
-    <row r="3" spans="1:43" ht="19.5" thickBot="1">
+    <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A3" s="40"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -3283,7 +3284,7 @@
       <c r="K3" s="41"/>
       <c r="L3" s="41"/>
       <c r="M3" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
@@ -3316,7 +3317,7 @@
       <c r="AP3" s="18"/>
       <c r="AQ3" s="19"/>
     </row>
-    <row r="4" spans="1:43" ht="20.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:43" ht="19.2" thickTop="1" thickBot="1">
       <c r="A4" s="9"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3363,7 +3364,7 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -3426,7 +3427,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -3473,7 +3474,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -3520,7 +3521,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -3567,7 +3568,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -3596,7 +3597,7 @@
       <c r="AP9" s="2"/>
       <c r="AQ9" s="8"/>
     </row>
-    <row r="10" spans="1:43" ht="19.5" thickBot="1">
+    <row r="10" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3643,7 +3644,7 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -6073,7 +6074,7 @@
       <c r="AP64" s="2"/>
       <c r="AQ64" s="8"/>
     </row>
-    <row r="65" spans="1:43" ht="19.5" thickBot="1">
+    <row r="65" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A65" s="10"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -6140,13 +6141,13 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FDFC34-064A-4B02-A20D-7BD3CDFD9391}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6157,11 +6158,11 @@
       <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43">
       <c r="A1" s="36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -6175,13 +6176,13 @@
       <c r="K1" s="37"/>
       <c r="L1" s="37"/>
       <c r="M1" s="32" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N1" s="32"/>
       <c r="O1" s="32"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R1" s="32"/>
       <c r="S1" s="32"/>
@@ -6232,13 +6233,13 @@
       <c r="K2" s="39"/>
       <c r="L2" s="39"/>
       <c r="M2" s="34" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
       <c r="P2" s="34"/>
       <c r="Q2" s="34" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R2" s="34"/>
       <c r="S2" s="34"/>
@@ -6275,7 +6276,7 @@
       <c r="AP2" s="34"/>
       <c r="AQ2" s="35"/>
     </row>
-    <row r="3" spans="1:43" ht="19.5" thickBot="1">
+    <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A3" s="40"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -6289,7 +6290,7 @@
       <c r="K3" s="41"/>
       <c r="L3" s="41"/>
       <c r="M3" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
@@ -6322,7 +6323,7 @@
       <c r="AP3" s="18"/>
       <c r="AQ3" s="19"/>
     </row>
-    <row r="4" spans="1:43" ht="20.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:43" ht="19.2" thickTop="1" thickBot="1">
       <c r="A4" s="9"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -6369,7 +6370,7 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -6432,7 +6433,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -6479,7 +6480,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -6526,7 +6527,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -6573,7 +6574,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -6602,7 +6603,7 @@
       <c r="AP9" s="2"/>
       <c r="AQ9" s="8"/>
     </row>
-    <row r="10" spans="1:43" ht="19.5" thickBot="1">
+    <row r="10" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -6649,7 +6650,7 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -7954,7 +7955,7 @@
       <c r="AP39" s="2"/>
       <c r="AQ39" s="8"/>
     </row>
-    <row r="40" spans="1:43" ht="19.5" thickBot="1">
+    <row r="40" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -8021,20 +8022,20 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F7F9B4-2B98-4077-87DB-91B04FC43D58}">
   <dimension ref="B2:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
